--- a/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR01.xlsx
+++ b/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelfi\Downloads\X\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milto\Desktop\6 SEMESTRE\CALIDAD DE SW\CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B60EAC-01ED-49CA-B217-CAA4A431ABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F227616-6317-4027-8C5D-35148EB9E2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
   </bookViews>
   <sheets>
     <sheet name="CR01" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>CHANGE REQUEST</t>
   </si>
@@ -163,13 +163,45 @@
   </si>
   <si>
     <t>Recomendación</t>
+  </si>
+  <si>
+    <t>Opción 1: Implementar los botones 'privacidad', 'términos', y 'contacto' utilizando enlaces estándar HTML que redirigen a las respectivas páginas de contenido. Esto requiere crear o conectar los archivos de contenido ya existentes.
+Opción 2: Crear un modal que aparezca sobre la página actual con el contenido de 'privacidad', 'términos', y 'contacto' para mantener al usuario en la misma página sin redireccionar.
+Opción 3: Desplegar la información relevante en la misma página acerca.html mediante una sección colapsable, lo que permitiría al usuario ver el contenido sin cambiar de pantalla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acerca.html	</t>
+  </si>
+  <si>
+    <t>Añadir funcionalidad a los botones 'privacidad', 'términos', y 'contacto'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estilos CSS	</t>
+  </si>
+  <si>
+    <t>Ajustes de estilo para la nueva sección de botones (si aplica)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivos de contenido	</t>
+  </si>
+  <si>
+    <t>Creación o modificación de archivos HTML o textos legales relacionados</t>
+  </si>
+  <si>
+    <t>4-6 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impacto minio </t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -482,7 +514,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -552,6 +583,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,6 +606,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>193303</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>168650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>739589</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>109666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03D2298-889D-E12D-BAF1-A0F58B590365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190627" y="6186209"/>
+          <a:ext cx="4804521" cy="512516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -889,11 +976,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61C478F-EA35-46B4-8BAA-5ACF50DF47D1}">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.5703125" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
@@ -902,8 +989,8 @@
     <col min="8" max="8" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:8">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -912,7 +999,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75">
+    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -924,131 +1011,131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="F4" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" ht="15" customHeight="1">
+    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" ht="15" customHeight="1">
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" ht="15" customHeight="1">
+    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="39"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="8" t="s">
         <v>13</v>
       </c>
@@ -1060,7 +1147,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -1071,46 +1158,60 @@
       <c r="E21" s="18">
         <v>45508</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="8"/>
+      <c r="E22" s="10">
+        <v>45516</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="8"/>
+      <c r="E23" s="10">
+        <v>45517</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="D24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="10">
+        <v>45517</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="8" t="s">
         <v>22</v>
@@ -1121,7 +1222,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>23</v>
@@ -1132,7 +1233,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="8" t="s">
         <v>24</v>
@@ -1143,7 +1244,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="8" t="s">
         <v>25</v>
@@ -1154,7 +1255,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="8" t="s">
         <v>26</v>
@@ -1165,7 +1266,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="8" t="s">
         <v>27</v>
@@ -1176,18 +1277,18 @@
       <c r="G30" s="12"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" t="s">
         <v>28</v>
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="13" t="s">
         <v>29</v>
@@ -1198,16 +1299,16 @@
       <c r="G33" s="13"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="2:8" ht="15.75" thickBot="1">
+    <row r="35" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -1233,11 +1334,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33198599-D7F8-440A-9813-85D60D291D95}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3.5703125" customWidth="1"/>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
@@ -1246,8 +1347,8 @@
     <col min="8" max="8" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:8">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1256,7 +1357,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75">
+    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>30</v>
@@ -1264,254 +1365,280 @@
       <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="19">
+        <v>1</v>
+      </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="47" t="s">
+        <v>2</v>
+      </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="46">
+        <v>45517</v>
+      </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="D7" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
+      <c r="C10" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
+      <c r="C18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
+      <c r="C20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" t="s">
         <v>39</v>
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="46"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:8" ht="15.75" thickBot="1">
+    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -1533,5 +1660,6 @@
     <mergeCell ref="D21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR01.xlsx
+++ b/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milto\Desktop\6 SEMESTRE\CALIDAD DE SW\CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F227616-6317-4027-8C5D-35148EB9E2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CC7345-779D-4838-BDA1-3D1FC11FDC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
   </bookViews>
   <sheets>
     <sheet name="CR01" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>CHANGE REQUEST</t>
   </si>
@@ -165,11 +165,6 @@
     <t>Recomendación</t>
   </si>
   <si>
-    <t>Opción 1: Implementar los botones 'privacidad', 'términos', y 'contacto' utilizando enlaces estándar HTML que redirigen a las respectivas páginas de contenido. Esto requiere crear o conectar los archivos de contenido ya existentes.
-Opción 2: Crear un modal que aparezca sobre la página actual con el contenido de 'privacidad', 'términos', y 'contacto' para mantener al usuario en la misma página sin redireccionar.
-Opción 3: Desplegar la información relevante en la misma página acerca.html mediante una sección colapsable, lo que permitiría al usuario ver el contenido sin cambiar de pantalla.</t>
-  </si>
-  <si>
     <t xml:space="preserve">acerca.html	</t>
   </si>
   <si>
@@ -195,6 +190,11 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>1. Implementar los botones 'privacidad', 'términos', y 'contacto' utilizando enlaces estándar HTML que redirigen a las respectivas páginas de contenido. Esto requiere crear o conectar los archivos de contenido ya existentes.
+2. Crear un modal que aparezca sobre la página actual con el contenido de 'privacidad', 'términos', y 'contacto' para mantener al usuario en la misma página sin redireccionar.
+3. Desplegar la información relevante en la misma página acerca.html mediante una sección colapsable, lo que permitiría al usuario ver el contenido sin cambiar de pantalla.</t>
   </si>
 </sst>
 </file>
@@ -518,78 +518,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,15 +613,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>193303</xdr:colOff>
+      <xdr:colOff>652744</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>168650</xdr:rowOff>
+      <xdr:rowOff>168649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>739589</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1098177</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>109666</xdr:rowOff>
+      <xdr:rowOff>180192</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -644,8 +644,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1190627" y="6186209"/>
-          <a:ext cx="4804521" cy="512516"/>
+          <a:off x="1650068" y="6186208"/>
+          <a:ext cx="5465668" cy="583043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61C478F-EA35-46B4-8BAA-5ACF50DF47D1}">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,12 +1031,12 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -1052,12 +1052,12 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -1069,12 +1069,12 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -1090,40 +1090,40 @@
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="38"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="8" t="s">
         <v>13</v>
       </c>
@@ -1169,9 +1169,11 @@
       <c r="C22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E22" s="10">
-        <v>45516</v>
+        <v>45510</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>18</v>
@@ -1184,7 +1186,9 @@
       <c r="C23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E23" s="10">
         <v>45517</v>
       </c>
@@ -1200,7 +1204,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="10">
         <v>45517</v>
@@ -1301,11 +1305,11 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1334,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33198599-D7F8-440A-9813-85D60D291D95}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1379,7 @@
       <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="25" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="7"/>
@@ -1385,7 +1389,7 @@
       <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="24">
         <v>45517</v>
       </c>
       <c r="H5" s="7"/>
@@ -1399,12 +1403,12 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -1424,49 +1428,49 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
+      <c r="C10" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -1485,66 +1489,66 @@
       <c r="C17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -1553,7 +1557,7 @@
         <v>38</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7"/>
     </row>
@@ -1574,7 +1578,7 @@
         <v>40</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" s="7"/>
     </row>
@@ -1595,47 +1599,47 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR01.xlsx
+++ b/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milto\Desktop\6 SEMESTRE\CALIDAD DE SW\CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CC7345-779D-4838-BDA1-3D1FC11FDC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AB1C54-5856-4329-BFF1-990757BCC9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>CHANGE REQUEST</t>
   </si>
@@ -181,12 +181,6 @@
   </si>
   <si>
     <t>Creación o modificación de archivos HTML o textos legales relacionados</t>
-  </si>
-  <si>
-    <t>4-6 horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impacto minio </t>
   </si>
   <si>
     <t>A</t>
@@ -195,6 +189,9 @@
     <t>1. Implementar los botones 'privacidad', 'términos', y 'contacto' utilizando enlaces estándar HTML que redirigen a las respectivas páginas de contenido. Esto requiere crear o conectar los archivos de contenido ya existentes.
 2. Crear un modal que aparezca sobre la página actual con el contenido de 'privacidad', 'términos', y 'contacto' para mantener al usuario en la misma página sin redireccionar.
 3. Desplegar la información relevante en la misma página acerca.html mediante una sección colapsable, lo que permitiría al usuario ver el contenido sin cambiar de pantalla.</t>
+  </si>
+  <si>
+    <t>bajo</t>
   </si>
 </sst>
 </file>
@@ -976,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61C478F-EA35-46B4-8BAA-5ACF50DF47D1}">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -1204,7 +1201,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E24" s="10">
         <v>45517</v>
@@ -1338,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33198599-D7F8-440A-9813-85D60D291D95}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1426,7 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
@@ -1557,7 +1554,7 @@
         <v>38</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7"/>
     </row>
@@ -1578,7 +1575,7 @@
         <v>40</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" s="7"/>
     </row>

--- a/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR01.xlsx
+++ b/Fase III - Construcción y Evolución/1. Solicitudes de Cambio/CR01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milto\Desktop\6 SEMESTRE\CALIDAD DE SW\CR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jonathan\6to semestre\Calidad de SW\Proyecto\BrailleTech\Fase III - Construcción y Evolución\1. Solicitudes de Cambio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AB1C54-5856-4329-BFF1-990757BCC9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F3C51E-6A0B-4138-91EC-5F29D9D30A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
+    <workbookView xWindow="1152" yWindow="720" windowWidth="11712" windowHeight="12240" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
   </bookViews>
   <sheets>
     <sheet name="CR01" sheetId="3" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>CHANGE REQUEST</t>
   </si>
@@ -181,9 +179,6 @@
   </si>
   <si>
     <t>Creación o modificación de archivos HTML o textos legales relacionados</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>1. Implementar los botones 'privacidad', 'términos', y 'contacto' utilizando enlaces estándar HTML que redirigen a las respectivas páginas de contenido. Esto requiere crear o conectar los archivos de contenido ya existentes.
@@ -192,13 +187,19 @@
   </si>
   <si>
     <t>bajo</t>
+  </si>
+  <si>
+    <t>BrailleTech</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -973,21 +974,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61C478F-EA35-46B4-8BAA-5ACF50DF47D1}">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
-    <col min="5" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" customWidth="1"/>
+    <col min="3" max="3" width="36.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.59765625" customWidth="1"/>
+    <col min="5" max="7" width="20.09765625" customWidth="1"/>
+    <col min="8" max="8" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="14.4" thickBot="1"/>
+    <row r="2" spans="2:8">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -996,7 +997,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="17.399999999999999">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -1008,22 +1009,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8">
       <c r="B4" s="4"/>
       <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="4"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8">
       <c r="B6" s="4"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>4</v>
@@ -1036,15 +1039,15 @@
       <c r="G7" s="29"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8" s="4"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="B9" s="4"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10" s="4"/>
       <c r="C10" t="s">
         <v>6</v>
@@ -1057,11 +1060,11 @@
       <c r="G10" s="29"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8">
       <c r="B11" s="4"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8">
       <c r="B12" s="4"/>
       <c r="C12" t="s">
         <v>8</v>
@@ -1074,18 +1077,18 @@
       <c r="G12" s="29"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8">
       <c r="B13" s="4"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="15" customHeight="1">
       <c r="B15" s="4"/>
       <c r="C15" s="30" t="s">
         <v>11</v>
@@ -1096,7 +1099,7 @@
       <c r="G15" s="32"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="15" customHeight="1">
       <c r="B16" s="4"/>
       <c r="C16" s="33"/>
       <c r="D16" s="34"/>
@@ -1105,7 +1108,7 @@
       <c r="G16" s="35"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="15" customHeight="1">
       <c r="B17" s="4"/>
       <c r="C17" s="33"/>
       <c r="D17" s="34"/>
@@ -1114,7 +1117,7 @@
       <c r="G17" s="35"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="4"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
@@ -1123,11 +1126,11 @@
       <c r="G18" s="38"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" s="4"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20" s="4"/>
       <c r="C20" s="39" t="s">
         <v>12</v>
@@ -1144,7 +1147,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -1161,7 +1164,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22" s="4"/>
       <c r="C22" s="8" t="s">
         <v>19</v>
@@ -1173,12 +1176,12 @@
         <v>45510</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" s="4"/>
       <c r="C23" s="8" t="s">
         <v>20</v>
@@ -1190,29 +1193,29 @@
         <v>45517</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" s="4"/>
       <c r="C24" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E24" s="10">
         <v>45517</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" s="4"/>
       <c r="C25" s="8" t="s">
         <v>22</v>
@@ -1223,7 +1226,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>23</v>
@@ -1234,7 +1237,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="B27" s="4"/>
       <c r="C27" s="8" t="s">
         <v>24</v>
@@ -1245,7 +1248,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28" s="4"/>
       <c r="C28" s="8" t="s">
         <v>25</v>
@@ -1256,7 +1259,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="B29" s="4"/>
       <c r="C29" s="8" t="s">
         <v>26</v>
@@ -1267,7 +1270,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="B30" s="4"/>
       <c r="C30" s="8" t="s">
         <v>27</v>
@@ -1278,18 +1281,18 @@
       <c r="G30" s="12"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="B31" s="4"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="B32" s="4"/>
       <c r="C32" t="s">
         <v>28</v>
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8">
       <c r="B33" s="4"/>
       <c r="C33" s="13" t="s">
         <v>29</v>
@@ -1300,7 +1303,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8">
       <c r="B34" s="4"/>
       <c r="C34" s="26"/>
       <c r="D34" s="27"/>
@@ -1309,7 +1312,7 @@
       <c r="G34" s="28"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="14.4" thickBot="1">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -1335,21 +1338,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33198599-D7F8-440A-9813-85D60D291D95}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3.59765625" customWidth="1"/>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.8984375" customWidth="1"/>
+    <col min="6" max="6" width="22.09765625" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="14.4" thickBot="1"/>
+    <row r="2" spans="2:8">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1358,7 +1361,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="17.399999999999999">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>30</v>
@@ -1371,7 +1374,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8">
       <c r="B4" s="4"/>
       <c r="F4" t="s">
         <v>32</v>
@@ -1381,7 +1384,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8">
       <c r="B5" s="4"/>
       <c r="F5" t="s">
         <v>33</v>
@@ -1391,11 +1394,11 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8">
       <c r="B6" s="4"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>4</v>
@@ -1408,11 +1411,11 @@
       <c r="G7" s="41"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8" s="4"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="B9" s="4"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
@@ -1423,10 +1426,10 @@
       <c r="G9" s="22"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10" s="4"/>
       <c r="C10" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
@@ -1434,7 +1437,7 @@
       <c r="G10" s="44"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8">
       <c r="B11" s="4"/>
       <c r="C11" s="45"/>
       <c r="D11" s="43"/>
@@ -1443,7 +1446,7 @@
       <c r="G11" s="44"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8">
       <c r="B12" s="4"/>
       <c r="C12" s="45"/>
       <c r="D12" s="43"/>
@@ -1452,7 +1455,7 @@
       <c r="G12" s="44"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="32.25" customHeight="1">
       <c r="B13" s="4"/>
       <c r="C13" s="45"/>
       <c r="D13" s="43"/>
@@ -1461,7 +1464,7 @@
       <c r="G13" s="44"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="46.5" customHeight="1">
       <c r="B14" s="4"/>
       <c r="C14" s="46"/>
       <c r="D14" s="47"/>
@@ -1470,18 +1473,18 @@
       <c r="G14" s="48"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8">
       <c r="B15" s="4"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8">
       <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="4"/>
       <c r="C17" s="8" t="s">
         <v>36</v>
@@ -1494,7 +1497,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="4"/>
       <c r="C18" s="8" t="s">
         <v>42</v>
@@ -1507,7 +1510,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>44</v>
@@ -1520,7 +1523,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
         <v>46</v>
@@ -1533,7 +1536,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
       <c r="D21" s="26"/>
@@ -1542,48 +1545,48 @@
       <c r="G21" s="28"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22" s="4"/>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" s="4"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" s="4"/>
       <c r="C25" t="s">
         <v>39</v>
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26" s="4"/>
       <c r="C26" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="B27" s="4"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28" s="4"/>
       <c r="C28" s="20" t="s">
         <v>41</v>
@@ -1594,7 +1597,7 @@
       <c r="G28" s="22"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="B29" s="4"/>
       <c r="C29" s="45"/>
       <c r="D29" s="43"/>
@@ -1603,7 +1606,7 @@
       <c r="G29" s="44"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="B30" s="4"/>
       <c r="C30" s="45"/>
       <c r="D30" s="43"/>
@@ -1612,7 +1615,7 @@
       <c r="G30" s="44"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="B31" s="4"/>
       <c r="C31" s="45"/>
       <c r="D31" s="43"/>
@@ -1621,7 +1624,7 @@
       <c r="G31" s="44"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="B32" s="4"/>
       <c r="C32" s="45"/>
       <c r="D32" s="43"/>
@@ -1630,7 +1633,7 @@
       <c r="G32" s="44"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8">
       <c r="B33" s="4"/>
       <c r="C33" s="46"/>
       <c r="D33" s="47"/>
@@ -1639,7 +1642,7 @@
       <c r="G33" s="48"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="14.4" thickBot="1">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
